--- a/code/Dataset/Autoencoder_score.xlsx
+++ b/code/Dataset/Autoencoder_score.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SuitabilityScore_AE_scaled</t>
+          <t>SuitabilityScore_AE_norm_scale</t>
         </is>
       </c>
     </row>
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5764850378036499</v>
+        <v>0.4947690963745117</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2764788866043091</v>
+        <v>0.2613105773925781</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4095537662506104</v>
+        <v>0.2930623888969421</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3674314022064209</v>
+        <v>0.2733950018882751</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9066417217254639</v>
+        <v>0.9023102521896362</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7224135398864746</v>
+        <v>0.6660270690917969</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9060748815536499</v>
+        <v>0.9658019542694092</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7081301212310791</v>
+        <v>0.6675319671630859</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2367598414421082</v>
+        <v>0.1721561551094055</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5072715282440186</v>
+        <v>0.3579152822494507</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.4008513689041138</v>
+        <v>0.3900593519210815</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3839554786682129</v>
+        <v>0.3349621891975403</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.3335795402526855</v>
+        <v>0.3517841100692749</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.3684846162796021</v>
+        <v>0.2857626080513</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.6190277338027954</v>
+        <v>0.5225977897644043</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.405121922492981</v>
+        <v>0.343306303024292</v>
       </c>
     </row>
     <row r="18">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.3658820390701294</v>
+        <v>0.215991199016571</v>
       </c>
     </row>
     <row r="19">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.5695246458053589</v>
+        <v>0.5526906251907349</v>
       </c>
     </row>
     <row r="20">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2894683480262756</v>
+        <v>0.2386856079101562</v>
       </c>
     </row>
     <row r="21">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.843023419380188</v>
+        <v>0.9382219314575195</v>
       </c>
     </row>
     <row r="22">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.8559033870697021</v>
+        <v>0.8782807588577271</v>
       </c>
     </row>
     <row r="23">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.6189002990722656</v>
+        <v>0.6324694156646729</v>
       </c>
     </row>
     <row r="24">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.5563528537750244</v>
+        <v>0.4382261037826538</v>
       </c>
     </row>
     <row r="25">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.6517151594161987</v>
+        <v>0.6556057929992676</v>
       </c>
     </row>
     <row r="26">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.752791166305542</v>
+        <v>0.7517112493515015</v>
       </c>
     </row>
     <row r="27">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.3862444162368774</v>
+        <v>0.4516491889953613</v>
       </c>
     </row>
     <row r="28">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.8230389356613159</v>
+        <v>0.8633438348770142</v>
       </c>
     </row>
     <row r="29">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.500191330909729</v>
+        <v>0.453376293182373</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.4857248067855835</v>
+        <v>0.3653913736343384</v>
       </c>
     </row>
     <row r="31">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.6869229078292847</v>
+        <v>0.7102515697479248</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.3034957051277161</v>
+        <v>0.2221843004226685</v>
       </c>
     </row>
     <row r="33">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.480970025062561</v>
+        <v>0.4685240983963013</v>
       </c>
     </row>
     <row r="34">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.7424541711807251</v>
+        <v>0.7124089002609253</v>
       </c>
     </row>
     <row r="35">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.5426698923110962</v>
+        <v>0.4508063793182373</v>
       </c>
     </row>
     <row r="36">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.3729335069656372</v>
+        <v>0.3158775568008423</v>
       </c>
     </row>
     <row r="37">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.3881702423095703</v>
+        <v>0.4510931968688965</v>
       </c>
     </row>
     <row r="38">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.3107383251190186</v>
+        <v>0.2928026914596558</v>
       </c>
     </row>
     <row r="39">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.7577341794967651</v>
+        <v>0.7476886510848999</v>
       </c>
     </row>
     <row r="40">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.3803068399429321</v>
+        <v>0.3788273334503174</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.2734281420707703</v>
+        <v>0.2164083123207092</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.4359411001205444</v>
+        <v>0.3958691358566284</v>
       </c>
     </row>
     <row r="43">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.414854884147644</v>
+        <v>0.3483465313911438</v>
       </c>
     </row>
     <row r="44">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.475940465927124</v>
+        <v>0.4841436147689819</v>
       </c>
     </row>
     <row r="45">
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.5438603162765503</v>
+        <v>0.4762556552886963</v>
       </c>
     </row>
     <row r="46">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.5303043127059937</v>
+        <v>0.4751893281936646</v>
       </c>
     </row>
     <row r="47">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.8904651403427124</v>
+        <v>0.9399939775466919</v>
       </c>
     </row>
     <row r="48">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.3140213489532471</v>
+        <v>0.2741279602050781</v>
       </c>
     </row>
     <row r="49">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.2866124510765076</v>
+        <v>0.2316972613334656</v>
       </c>
     </row>
     <row r="50">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.5104649066925049</v>
+        <v>0.4033141136169434</v>
       </c>
     </row>
     <row r="51">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.4567338228225708</v>
+        <v>0.4234123229980469</v>
       </c>
     </row>
     <row r="52">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.7969862222671509</v>
+        <v>0.7290475368499756</v>
       </c>
     </row>
     <row r="53">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.6206921339035034</v>
+        <v>0.576723575592041</v>
       </c>
     </row>
     <row r="54">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.7604975700378418</v>
+        <v>0.7157618999481201</v>
       </c>
     </row>
     <row r="55">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.2729471325874329</v>
+        <v>0.1937243342399597</v>
       </c>
     </row>
     <row r="56">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.5105941295623779</v>
+        <v>0.6060140132904053</v>
       </c>
     </row>
     <row r="57">
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.8968783617019653</v>
+        <v>0.9221301078796387</v>
       </c>
     </row>
     <row r="58">
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.2563125491142273</v>
+        <v>0.2293208837509155</v>
       </c>
     </row>
     <row r="59">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.4628561735153198</v>
+        <v>0.4486802816390991</v>
       </c>
     </row>
     <row r="60">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.5784229040145874</v>
+        <v>0.557367205619812</v>
       </c>
     </row>
     <row r="61">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.588448166847229</v>
+        <v>0.5832535028457642</v>
       </c>
     </row>
     <row r="62">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.5477159023284912</v>
+        <v>0.4695218801498413</v>
       </c>
     </row>
     <row r="63">
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.6103401184082031</v>
+        <v>0.6079947948455811</v>
       </c>
     </row>
     <row r="64">
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.700533390045166</v>
+        <v>0.7029372453689575</v>
       </c>
     </row>
     <row r="65">
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.1688469052314758</v>
+        <v>0.1500970721244812</v>
       </c>
     </row>
     <row r="66">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.4197825193405151</v>
+        <v>0.3721182346343994</v>
       </c>
     </row>
     <row r="67">
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.3789914846420288</v>
+        <v>0.4306193590164185</v>
       </c>
     </row>
     <row r="68">
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.4025661945343018</v>
+        <v>0.3164451718330383</v>
       </c>
     </row>
     <row r="69">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.3680546283721924</v>
+        <v>0.3361043334007263</v>
       </c>
     </row>
     <row r="70">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.5167598724365234</v>
+        <v>0.3713158369064331</v>
       </c>
     </row>
     <row r="71">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.5794458389282227</v>
+        <v>0.4968180656433105</v>
       </c>
     </row>
     <row r="72">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.7306649684906006</v>
+        <v>0.6722981929779053</v>
       </c>
     </row>
     <row r="73">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.4835344552993774</v>
+        <v>0.4609599113464355</v>
       </c>
     </row>
     <row r="74">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.2910094857215881</v>
+        <v>0.169277548789978</v>
       </c>
     </row>
     <row r="75">
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.7758393287658691</v>
+        <v>0.7691932916641235</v>
       </c>
     </row>
     <row r="76">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.4159091711044312</v>
+        <v>0.3886932134628296</v>
       </c>
     </row>
     <row r="77">
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.5508662462234497</v>
+        <v>0.399666428565979</v>
       </c>
     </row>
     <row r="78">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.7782418727874756</v>
+        <v>0.7098006010055542</v>
       </c>
     </row>
     <row r="79">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.8728795051574707</v>
+        <v>0.7847824096679688</v>
       </c>
     </row>
     <row r="80">
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.4797710180282593</v>
+        <v>0.4043962955474854</v>
       </c>
     </row>
     <row r="81">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.02745825052261353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.6142210960388184</v>
+        <v>0.6433321237564087</v>
       </c>
     </row>
     <row r="83">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.1740119457244873</v>
+        <v>0.1238672733306885</v>
       </c>
     </row>
     <row r="84">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.2928779125213623</v>
+        <v>0.2228092551231384</v>
       </c>
     </row>
     <row r="85">
@@ -1534,7 +1534,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.5622304677963257</v>
+        <v>0.5733197927474976</v>
       </c>
     </row>
     <row r="86">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.1742652654647827</v>
+        <v>0.1368434429168701</v>
       </c>
     </row>
     <row r="87">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.6357004642486572</v>
+        <v>0.5941437482833862</v>
       </c>
     </row>
     <row r="88">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.7716084718704224</v>
+        <v>0.7285913228988647</v>
       </c>
     </row>
     <row r="89">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.416710376739502</v>
+        <v>0.2442475557327271</v>
       </c>
     </row>
     <row r="90">
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.6915570497512817</v>
+        <v>0.6792737245559692</v>
       </c>
     </row>
     <row r="91">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.5602633953094482</v>
+        <v>0.4763698577880859</v>
       </c>
     </row>
     <row r="92">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.3591974973678589</v>
+        <v>0.3176490664482117</v>
       </c>
     </row>
     <row r="94">
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.6516467332839966</v>
+        <v>0.5996274948120117</v>
       </c>
     </row>
     <row r="95">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.4169957637786865</v>
+        <v>0.2876932621002197</v>
       </c>
     </row>
     <row r="96">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.5287468433380127</v>
+        <v>0.4914919137954712</v>
       </c>
     </row>
     <row r="97">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.4165003299713135</v>
+        <v>0.4426313638687134</v>
       </c>
     </row>
     <row r="98">
@@ -1703,7 +1703,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.6016641855239868</v>
+        <v>0.5961557626724243</v>
       </c>
     </row>
     <row r="99">
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.4368557929992676</v>
+        <v>0.3806552886962891</v>
       </c>
     </row>
     <row r="100">
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.5428410768508911</v>
+        <v>0.5321557521820068</v>
       </c>
     </row>
     <row r="101">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.1652764081954956</v>
+        <v>0.1236985325813293</v>
       </c>
     </row>
     <row r="102">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.4970592260360718</v>
+        <v>0.4380341768264771</v>
       </c>
     </row>
     <row r="103">
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.4160361289978027</v>
+        <v>0.4055308103561401</v>
       </c>
     </row>
     <row r="104">
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.5155515670776367</v>
+        <v>0.5357968807220459</v>
       </c>
     </row>
     <row r="105">
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.1647806167602539</v>
+        <v>0.1631680130958557</v>
       </c>
     </row>
     <row r="106">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.5055580139160156</v>
+        <v>0.5263803005218506</v>
       </c>
     </row>
     <row r="107">
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.7955735921859741</v>
+        <v>0.6860847473144531</v>
       </c>
     </row>
     <row r="108">
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.5099568367004395</v>
+        <v>0.5044223070144653</v>
       </c>
     </row>
     <row r="109">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.6853984594345093</v>
+        <v>0.7118945121765137</v>
       </c>
     </row>
     <row r="110">
@@ -1859,7 +1859,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.5210686922073364</v>
+        <v>0.4762401580810547</v>
       </c>
     </row>
     <row r="111">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.4532111883163452</v>
+        <v>0.3424119353294373</v>
       </c>
     </row>
     <row r="112">
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.8514002561569214</v>
+        <v>0.7502598762512207</v>
       </c>
     </row>
     <row r="113">
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.7204183340072632</v>
+        <v>0.6766344308853149</v>
       </c>
     </row>
     <row r="114">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.4978469610214233</v>
+        <v>0.4744595289230347</v>
       </c>
     </row>
     <row r="115">
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.4857807159423828</v>
+        <v>0.4860548973083496</v>
       </c>
     </row>
     <row r="116">
@@ -1937,7 +1937,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.4618561267852783</v>
+        <v>0.4825950860977173</v>
       </c>
     </row>
     <row r="117">
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.5156837701797485</v>
+        <v>0.4228558540344238</v>
       </c>
     </row>
     <row r="118">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.2818751931190491</v>
+        <v>0.1732699871063232</v>
       </c>
     </row>
     <row r="119">
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.3585561513900757</v>
+        <v>0.2384292483329773</v>
       </c>
     </row>
     <row r="120">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>0.01914185285568237</v>
       </c>
     </row>
     <row r="121">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.7082692384719849</v>
+        <v>0.6108356714248657</v>
       </c>
     </row>
     <row r="122">
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.3207629919052124</v>
+        <v>0.2795842885971069</v>
       </c>
     </row>
     <row r="123">
@@ -2028,7 +2028,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.4916188716888428</v>
+        <v>0.4791066646575928</v>
       </c>
     </row>
     <row r="124">
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.6188430786132812</v>
+        <v>0.5228643417358398</v>
       </c>
     </row>
     <row r="125">
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.1298782825469971</v>
+        <v>0.05486243963241577</v>
       </c>
     </row>
     <row r="126">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.5929485559463501</v>
+        <v>0.5338237285614014</v>
       </c>
     </row>
     <row r="127">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.7225059270858765</v>
+        <v>0.7254514694213867</v>
       </c>
     </row>
     <row r="128">
@@ -2093,7 +2093,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.1123009324073792</v>
+        <v>0.1191703677177429</v>
       </c>
     </row>
     <row r="129">
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.4500360488891602</v>
+        <v>0.4647172689437866</v>
       </c>
     </row>
     <row r="130">
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.568897008895874</v>
+        <v>0.5710842609405518</v>
       </c>
     </row>
     <row r="131">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.7035770416259766</v>
+        <v>0.7733328342437744</v>
       </c>
     </row>
     <row r="132">
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.3865400552749634</v>
+        <v>0.4026491641998291</v>
       </c>
     </row>
     <row r="133">
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.4122264385223389</v>
+        <v>0.3594585657119751</v>
       </c>
     </row>
     <row r="134">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.7985867261886597</v>
+        <v>0.7375683784484863</v>
       </c>
     </row>
     <row r="135">
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.708965539932251</v>
+        <v>0.6656707525253296</v>
       </c>
     </row>
     <row r="136">
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.2119062542915344</v>
+        <v>0.1339019536972046</v>
       </c>
     </row>
     <row r="137">
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.7995402812957764</v>
+        <v>0.7827403545379639</v>
       </c>
     </row>
     <row r="138">
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.5485808849334717</v>
+        <v>0.459559440612793</v>
       </c>
     </row>
     <row r="139">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.8780896663665771</v>
+        <v>0.8942131996154785</v>
       </c>
     </row>
     <row r="140">
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.4013029336929321</v>
+        <v>0.3703904151916504</v>
       </c>
     </row>
     <row r="141">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.464025616645813</v>
+        <v>0.3704736232757568</v>
       </c>
     </row>
     <row r="142">
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.8156111240386963</v>
+        <v>0.7948834896087646</v>
       </c>
     </row>
     <row r="143">
@@ -2288,7 +2288,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.2696664333343506</v>
+        <v>0.2160175442695618</v>
       </c>
     </row>
     <row r="144">
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.5702530145645142</v>
+        <v>0.4854220151901245</v>
       </c>
     </row>
     <row r="145">
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.3851691484451294</v>
+        <v>0.2957805395126343</v>
       </c>
     </row>
     <row r="146">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.7285401821136475</v>
+        <v>0.6846257448196411</v>
       </c>
     </row>
     <row r="147">
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.5426557064056396</v>
+        <v>0.4916051626205444</v>
       </c>
     </row>
     <row r="148">
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.6427892446517944</v>
+        <v>0.6413898468017578</v>
       </c>
     </row>
     <row r="149">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.689522385597229</v>
+        <v>0.6276003122329712</v>
       </c>
     </row>
     <row r="150">
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.5870664119720459</v>
+        <v>0.5223513841629028</v>
       </c>
     </row>
     <row r="151">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.1088623404502869</v>
+        <v>0.0330427885055542</v>
       </c>
     </row>
     <row r="152">
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.4933158159255981</v>
+        <v>0.384013295173645</v>
       </c>
     </row>
     <row r="153">
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.5084983110427856</v>
+        <v>0.4649946689605713</v>
       </c>
     </row>
     <row r="154">
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.3289245367050171</v>
+        <v>0.2602441310882568</v>
       </c>
     </row>
     <row r="155">
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.4640085697174072</v>
+        <v>0.3937904834747314</v>
       </c>
     </row>
     <row r="156">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.6266645193099976</v>
+        <v>0.5391813516616821</v>
       </c>
     </row>
     <row r="157">
@@ -2470,7 +2470,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.2949801683425903</v>
+        <v>0.3067046999931335</v>
       </c>
     </row>
     <row r="158">
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.7291226387023926</v>
+        <v>0.7529481649398804</v>
       </c>
     </row>
     <row r="159">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.6580761671066284</v>
+        <v>0.663658618927002</v>
       </c>
     </row>
     <row r="160">
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.4686589241027832</v>
+        <v>0.4037711620330811</v>
       </c>
     </row>
     <row r="161">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.5642215013504028</v>
+        <v>0.4993933439254761</v>
       </c>
     </row>
     <row r="162">
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.5531498193740845</v>
+        <v>0.5967719554901123</v>
       </c>
     </row>
     <row r="163">
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.2235699892044067</v>
+        <v>0.04550051689147949</v>
       </c>
     </row>
     <row r="164">
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.5599287748336792</v>
+        <v>0.5055055618286133</v>
       </c>
     </row>
     <row r="165">
@@ -2574,7 +2574,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.4598367214202881</v>
+        <v>0.35968017578125</v>
       </c>
     </row>
     <row r="166">
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.4887250661849976</v>
+        <v>0.3888708353042603</v>
       </c>
     </row>
     <row r="167">
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.1699195504188538</v>
+        <v>0.1014493107795715</v>
       </c>
     </row>
     <row r="168">
@@ -2613,7 +2613,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.2963701486587524</v>
+        <v>0.1884226202964783</v>
       </c>
     </row>
     <row r="169">
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.4935256242752075</v>
+        <v>0.4265578985214233</v>
       </c>
     </row>
     <row r="170">
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.07878464460372925</v>
+        <v>0.04182910919189453</v>
       </c>
     </row>
     <row r="171">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.6822782754898071</v>
+        <v>0.6453602313995361</v>
       </c>
     </row>
     <row r="172">
@@ -2665,7 +2665,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.4041485786437988</v>
+        <v>0.4037101268768311</v>
       </c>
     </row>
     <row r="173">
@@ -2678,7 +2678,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.5365762710571289</v>
+        <v>0.4905019998550415</v>
       </c>
     </row>
     <row r="174">
@@ -2691,7 +2691,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.4432196617126465</v>
+        <v>0.4120975732803345</v>
       </c>
     </row>
     <row r="175">
@@ -2704,7 +2704,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.6998101472854614</v>
+        <v>0.6267043352127075</v>
       </c>
     </row>
     <row r="176">
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.3333641886711121</v>
+        <v>0.3182675242424011</v>
       </c>
     </row>
     <row r="177">
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.3637154102325439</v>
+        <v>0.3139896988868713</v>
       </c>
     </row>
     <row r="178">
@@ -2743,7 +2743,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.4936755895614624</v>
+        <v>0.5227845907211304</v>
       </c>
     </row>
     <row r="179">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.4960925579071045</v>
+        <v>0.380814790725708</v>
       </c>
     </row>
     <row r="180">
@@ -2769,7 +2769,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.3000336289405823</v>
+        <v>0.2147849202156067</v>
       </c>
     </row>
     <row r="181">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.4550658464431763</v>
+        <v>0.4089597463607788</v>
       </c>
     </row>
     <row r="182">
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.5070890188217163</v>
+        <v>0.4417001008987427</v>
       </c>
     </row>
     <row r="183">
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.2343115210533142</v>
+        <v>0.2018061876296997</v>
       </c>
     </row>
     <row r="184">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.1907501220703125</v>
+        <v>0.138988733291626</v>
       </c>
     </row>
     <row r="185">
@@ -2834,7 +2834,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.1372278928756714</v>
+        <v>0.1278279423713684</v>
       </c>
     </row>
     <row r="186">
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.3121668100357056</v>
+        <v>0.1703739762306213</v>
       </c>
     </row>
     <row r="187">
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.6245576143264771</v>
+        <v>0.5920966863632202</v>
       </c>
     </row>
     <row r="188">
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.5633368492126465</v>
+        <v>0.6199451684951782</v>
       </c>
     </row>
     <row r="189">
@@ -2886,7 +2886,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.7387233972549438</v>
+        <v>0.5928397178649902</v>
       </c>
     </row>
     <row r="190">
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.3920935392379761</v>
+        <v>0.3387235999107361</v>
       </c>
     </row>
     <row r="191">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.1245633363723755</v>
+        <v>0.08750742673873901</v>
       </c>
     </row>
     <row r="192">
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.4496980905532837</v>
+        <v>0.3689718246459961</v>
       </c>
     </row>
     <row r="193">
@@ -2938,7 +2938,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.4706805944442749</v>
+        <v>0.4264657497406006</v>
       </c>
     </row>
     <row r="194">
@@ -2951,7 +2951,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.4742112159729004</v>
+        <v>0.4331027269363403</v>
       </c>
     </row>
     <row r="195">
@@ -2964,7 +2964,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.5270390510559082</v>
+        <v>0.4755451679229736</v>
       </c>
     </row>
     <row r="196">
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.244005024433136</v>
+        <v>0.1876650452613831</v>
       </c>
     </row>
     <row r="197">
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.3772468566894531</v>
+        <v>0.3052435517311096</v>
       </c>
     </row>
     <row r="198">
@@ -3003,7 +3003,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.4695585966110229</v>
+        <v>0.381298303604126</v>
       </c>
     </row>
     <row r="199">
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.6889363527297974</v>
+        <v>0.7598211765289307</v>
       </c>
     </row>
     <row r="200">
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.5300215482711792</v>
+        <v>0.5027188062667847</v>
       </c>
     </row>
     <row r="201">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.7840514183044434</v>
+        <v>0.685431957244873</v>
       </c>
     </row>
     <row r="202">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.6394234895706177</v>
+        <v>0.5753514766693115</v>
       </c>
     </row>
     <row r="203">
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.4338048696517944</v>
+        <v>0.4009089469909668</v>
       </c>
     </row>
     <row r="204">
@@ -3081,7 +3081,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.3032733201980591</v>
+        <v>0.2907840013504028</v>
       </c>
     </row>
     <row r="205">
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0.5144643783569336</v>
+        <v>0.473185658454895</v>
       </c>
     </row>
     <row r="206">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0.4445116519927979</v>
+        <v>0.3121111392974854</v>
       </c>
     </row>
     <row r="207">
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0.745023250579834</v>
+        <v>0.7196829319000244</v>
       </c>
     </row>
     <row r="208">
@@ -3133,7 +3133,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0.3165531158447266</v>
+        <v>0.3220564126968384</v>
       </c>
     </row>
     <row r="209">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0.3106603622436523</v>
+        <v>0.1576111316680908</v>
       </c>
     </row>
     <row r="210">
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0.5966999530792236</v>
+        <v>0.6167287826538086</v>
       </c>
     </row>
     <row r="211">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0.2829636931419373</v>
+        <v>0.1204679608345032</v>
       </c>
     </row>
     <row r="212">
@@ -3185,7 +3185,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0.3999811410903931</v>
+        <v>0.3515310287475586</v>
       </c>
     </row>
     <row r="213">
@@ -3198,7 +3198,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.6389901638031006</v>
+        <v>0.5570417642593384</v>
       </c>
     </row>
     <row r="214">
@@ -3211,7 +3211,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0.6401152610778809</v>
+        <v>0.6311861276626587</v>
       </c>
     </row>
     <row r="215">
@@ -3224,7 +3224,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.534398078918457</v>
+        <v>0.3950457572937012</v>
       </c>
     </row>
     <row r="216">
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.6832659244537354</v>
+        <v>0.6730955839157104</v>
       </c>
     </row>
     <row r="217">
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0.3743706941604614</v>
+        <v>0.3197878003120422</v>
       </c>
     </row>
     <row r="218">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.6415274143218994</v>
+        <v>0.5918526649475098</v>
       </c>
     </row>
     <row r="219">
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0.4580107927322388</v>
+        <v>0.4071640968322754</v>
       </c>
     </row>
     <row r="220">
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0.7250519990921021</v>
+        <v>0.6557159423828125</v>
       </c>
     </row>
     <row r="221">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0.4858467578887939</v>
+        <v>0.4655193090438843</v>
       </c>
     </row>
     <row r="222">
@@ -3315,7 +3315,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0.6250724792480469</v>
+        <v>0.5915577411651611</v>
       </c>
     </row>
     <row r="223">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.2684544920921326</v>
+        <v>0.2696343660354614</v>
       </c>
     </row>
     <row r="224">
@@ -3341,7 +3341,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0.797455906867981</v>
+        <v>0.7247523069381714</v>
       </c>
     </row>
     <row r="225">
@@ -3354,7 +3354,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0.176360011100769</v>
+        <v>0.2297321557998657</v>
       </c>
     </row>
     <row r="226">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0.8250395059585571</v>
+        <v>0.8340854644775391</v>
       </c>
     </row>
     <row r="227">
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0.6311920881271362</v>
+        <v>0.5914679765701294</v>
       </c>
     </row>
     <row r="228">
@@ -3393,7 +3393,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.4031950235366821</v>
+        <v>0.281475305557251</v>
       </c>
     </row>
     <row r="229">
@@ -3406,7 +3406,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.5050957202911377</v>
+        <v>0.3547828197479248</v>
       </c>
     </row>
     <row r="230">
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0.6598019599914551</v>
+        <v>0.6354193687438965</v>
       </c>
     </row>
     <row r="231">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.3685939311981201</v>
+        <v>0.2503305077552795</v>
       </c>
     </row>
     <row r="232">
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0.3592754602432251</v>
+        <v>0.2968757748603821</v>
       </c>
     </row>
     <row r="233">
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.422533392906189</v>
+        <v>0.3296464681625366</v>
       </c>
     </row>
     <row r="234">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0.9103186130523682</v>
+        <v>0.9089876413345337</v>
       </c>
     </row>
     <row r="235">
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.5148030519485474</v>
+        <v>0.4339280128479004</v>
       </c>
     </row>
     <row r="236">
@@ -3497,7 +3497,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.537729024887085</v>
+        <v>0.4884147644042969</v>
       </c>
     </row>
     <row r="237">
@@ -3510,7 +3510,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.1456945538520813</v>
+        <v>0.07958942651748657</v>
       </c>
     </row>
     <row r="238">
@@ -3523,7 +3523,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.4482684135437012</v>
+        <v>0.4127278327941895</v>
       </c>
     </row>
     <row r="239">
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0.5878901481628418</v>
+        <v>0.5372060537338257</v>
       </c>
     </row>
     <row r="240">
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.4857543706893921</v>
+        <v>0.390872597694397</v>
       </c>
     </row>
     <row r="241">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.2735278606414795</v>
+        <v>0.21419358253479</v>
       </c>
     </row>
   </sheetData>
